--- a/output/excel_reports/current_week_extracts.xlsx
+++ b/output/excel_reports/current_week_extracts.xlsx
@@ -412,45 +412,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="28.1640625" customWidth="1" min="1" max="1"/>
-    <col width="26.5" customWidth="1" min="2" max="2"/>
-    <col width="71.5" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="40.83203125" customWidth="1" min="6" max="6"/>
-    <col width="26.5" customWidth="1" min="7" max="7"/>
-    <col width="23.33203125" customWidth="1" min="25" max="25"/>
-    <col width="22.33203125" customWidth="1" min="35" max="35"/>
-    <col width="31.6640625" customWidth="1" min="37" max="37"/>
-    <col width="46" customWidth="1" min="38" max="38"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="20.1640625" customWidth="1" min="5" max="5"/>
+    <col width="24.6640625" customWidth="1" min="6" max="6"/>
+    <col width="37.6640625" customWidth="1" min="7" max="7"/>
+    <col width="16.1640625" customWidth="1" min="37" max="37"/>
+    <col width="30.5" customWidth="1" min="38" max="38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Thread ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Email Subject</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Email Sender</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Email Subject</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Extraction Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Thread ID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -622,22 +618,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>AAQkAGU5OTBhNTZhLTgxZjQtNDJiNS05NWNkLTI2MDIwOTkzNjAzOQAQAPbxv43DtlVKil3aJJPHITw=</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Salami</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Berat Bozkurt &lt;brtbzkrt06@gmail.com&gt;</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Re: skkk</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-06-17 16:55:24</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AAQkAGU5OTBhNTZhLTgxZjQtNDJiNS05NWNkLTI2MDIwOTkzNjAzOQAQAJrmS1Wa5qVAkH8zzSm_y2U=</t>
+          <t>2025-06-17 18:18:15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -813,22 +809,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>AAQkAGU5OTBhNTZhLTgxZjQtNDJiNS05NWNkLTI2MDIwOTkzNjAzOQAQADiOYZYvMUNDky984nLYByg=</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Re: asd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Berat Bozkurt &lt;brtbzkrt06@gmail.com&gt;</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Re: Cus</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-06-17 17:03:19</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AAQkAGU5OTBhNTZhLTgxZjQtNDJiNS05NWNkLTI2MDIwOTkzNjAzOQAQALuDGSJ-6P9ErxcDQbJxxfg=</t>
+          <t>2025-06-17 18:37:15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3127</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MEA250239</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2905</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10039 SOK.NO:26 AOSB CIGLI IZMIR TURKEY (TR)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ÜNİTEKS TEKSTİL GIDA SAN. DIŞ TİC. A.Ş.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -897,140 +928,70 @@
           <t>REBUL JCR KOZMETIK PAZARLAMA A.Ş.</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Berat Bozkurt &lt;brtbzkrt06@gmail.com&gt;</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Re: Cus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-06-17 17:08:21</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AAQkAGU5OTBhNTZhLTgxZjQtNDJiNS05NWNkLTI2MDIwOTkzNjAzOQAQALuDGSJ-6P9ErxcDQbJxxfg=</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3127</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>MEA250239</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2905</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>10039 SOK.NO:26 AOSB CIGLI IZMIR TURKEY (TR)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ÜNİTEKS TEKSTİL GIDA SAN. DIŞ TİC. A.Ş.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>BCW OFFICE NO:EXPOREGISTER02,
 25314 DUBAİ/ DUBAİ
 BİR.ARP.EMR.</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>EMEA ASPIRE TRADING FZE</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2025-05-22</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>FLK2025000000070</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>IHRACAT</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>ISTISNA</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>3503288.09</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>TRL</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>79777.2</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>ORHAN VELİ KANIK No:39
 34805 ÇUBUKLU / KAVACIK / BEYKOZ/ İSTANBUL</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>FİLİKA TEKSTİL TURZ.DIŞ TİC.VE SAN.LTD.ŞTİ.</t>
         </is>
